--- a/Lab 1.3/Link.xlsx
+++ b/Lab 1.3/Link.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uithcm-my.sharepoint.com/personal/19521377_ms_uit_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoc\git\SE357-Practice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{0C4091CF-6237-486A-8990-CF5C0CC00AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3B686E-BE42-4C88-949D-265601830EA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20F918-BAB6-4128-BD79-82B6A829E3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{102FF607-33C6-4DE5-9E77-0DB66D0280A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -131,13 +131,16 @@
     <t>Type</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
     <t>Functional Requirement</t>
   </si>
   <si>
-    <t>Non-functional Requirement</t>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -250,16 +253,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -270,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,344 +603,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66E033-3BE0-4870-99CE-6700C41DF1C0}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="69.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4" t="s">
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>4</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+      <c r="L17" s="5">
+        <v>6</v>
+      </c>
+      <c r="M17" s="5">
+        <v>7</v>
+      </c>
+      <c r="N17" s="5">
         <v>8</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3" t="s">
+      <c r="O17" s="5">
         <v>9</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="P17" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="8" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
         <v>8</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7" t="s">
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
         <v>9</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-    </row>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="60">
     <mergeCell ref="B11:C11"/>

--- a/Lab 1.3/Link.xlsx
+++ b/Lab 1.3/Link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hoc\git\SE357-Practice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20F918-BAB6-4128-BD79-82B6A829E3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0762A6-D082-4E52-AE8F-7600065C3929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{102FF607-33C6-4DE5-9E77-0DB66D0280A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{102FF607-33C6-4DE5-9E77-0DB66D0280A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -264,9 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -280,14 +294,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,724 +615,724 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="69.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="17" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="13">
         <v>2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="13">
         <v>3</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="13">
         <v>4</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="13">
         <v>5</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="13">
         <v>6</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="13">
         <v>7</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="13">
         <v>8</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="13">
         <v>9</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="13">
         <v>10</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="5">
+    <row r="18" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="13">
         <v>2</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="5">
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="13">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="5">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="13">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="5">
+      <c r="N21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="13">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="5">
+      <c r="J22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="13">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="5">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="13">
         <v>7</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="5">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="13">
         <v>8</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="5">
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="13">
         <v>9</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="5">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="13">
         <v>10</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="5">
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="13">
         <v>11</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="6:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K12" xr:uid="{FAD9299F-3276-47B0-8515-8A346957827C}">
